--- a/Collections/EURO/Monaco/#EURO#Monaco#Regular#[2001-present]#circulation_quality.xlsx
+++ b/Collections/EURO/Monaco/#EURO#Monaco#Regular#[2001-present]#circulation_quality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Monaco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796D4B03-21EA-4784-9888-49D780CF6219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD85D0C2-FB7A-453A-8AF8-E576AA9FA28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -46,6 +46,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -388,7 +391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="102">
   <si>
     <t>Year</t>
   </si>
@@ -681,6 +684,21 @@
   </si>
   <si>
     <t>Subtype_2#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>Obv: Prince Albert II - 2nd portrait</t>
+  </si>
+  <si>
+    <t>1.207.000</t>
+  </si>
+  <si>
+    <t>1.100.000</t>
+  </si>
+  <si>
+    <t>1.573.583</t>
+  </si>
+  <si>
+    <t>1.531.092</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1012,63 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="64">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1467,9 +1541,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="8" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1738,13 +1812,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2420,6 +2494,60 @@
         <v/>
       </c>
     </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>2024</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" ref="H26:H27" si="3">IF(OR(AND(G26&gt;1,G26&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
@@ -2427,11 +2555,28 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="56" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G21">
+    <cfRule type="containsText" dxfId="62" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G21">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2443,13 +2588,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G21">
-    <cfRule type="containsText" dxfId="55" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G21">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="61" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2460,12 +2605,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="60" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2477,12 +2622,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="G24:G26">
+    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G26">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2494,12 +2639,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G25">
-    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G25">
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2519,13 +2664,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3201,6 +3346,60 @@
         <v/>
       </c>
     </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>2024</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" ref="H26:H27" si="1">IF(OR(AND(G26&gt;1,G26&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="2">
@@ -3208,11 +3407,45 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G21">
-    <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G21">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="57" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3224,29 +3457,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="50" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3258,12 +3474,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="48" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="G24:G26">
+    <cfRule type="containsText" dxfId="54" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G26">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3275,12 +3491,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G25">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G25">
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3300,13 +3516,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3982,6 +4198,60 @@
         <v/>
       </c>
     </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>2024</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" ref="H26:H27" si="1">IF(OR(AND(G26&gt;1,G26&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <mergeCells count="2">
@@ -3989,11 +4259,45 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G21">
-    <cfRule type="containsText" dxfId="46" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G21">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="52" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4005,29 +4309,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="44" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4039,12 +4326,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="G24:G26">
+    <cfRule type="containsText" dxfId="49" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G26">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4056,12 +4343,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G25">
-    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G25">
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4081,13 +4368,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4763,6 +5050,60 @@
         <v/>
       </c>
     </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>2024</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" ref="H26:H27" si="2">IF(OR(AND(G26&gt;1,G26&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <mergeCells count="2">
@@ -4770,11 +5111,45 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G21">
-    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G21">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="47" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="46" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4786,29 +5161,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="40" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="45" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4820,12 +5178,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="G24:G26">
+    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G26">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4837,12 +5195,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G25">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G25">
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4862,13 +5220,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5544,6 +5902,60 @@
         <v/>
       </c>
     </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>2024</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" ref="H26:H27" si="2">IF(OR(AND(G26&gt;1,G26&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <mergeCells count="2">
@@ -5551,11 +5963,62 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G5">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G21">
+    <cfRule type="containsText" dxfId="42" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G21">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="41" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="40" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5567,46 +6030,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G21">
-    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G21">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5618,12 +6047,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="G24:G26">
+    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G26">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5635,12 +6064,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G25">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G25">
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5660,13 +6089,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6342,6 +6771,60 @@
         <v/>
       </c>
     </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>2024</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" ref="H26:H27" si="3">IF(OR(AND(G26&gt;1,G26&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
   <mergeCells count="2">
@@ -6349,11 +6832,62 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G5">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G21">
+    <cfRule type="containsText" dxfId="36" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G21">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6365,46 +6899,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G21">
-    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G21">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="G23">
+    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6416,12 +6916,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="G24:G26">
+    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G26">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6433,12 +6933,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G25">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G25">
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6458,13 +6958,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7182,12 +7682,41 @@
       <c r="E27" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="12"/>
+      <c r="F27" s="12" t="s">
+        <v>101</v>
+      </c>
       <c r="G27" s="26">
         <v>1</v>
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="26">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="str">
+        <f t="shared" ref="H28" si="4">IF(OR(AND(G28&gt;1,G28&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -7199,11 +7728,147 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G8 G11:G16 G18 G20">
+    <cfRule type="containsText" dxfId="30" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G8 G11:G16 G18 G20">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G10">
+    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G10">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22 G24 G26">
+    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24 G22 G26">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23 G25">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25 G23">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7215,131 +7880,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G8 G11:G16 G18 G20">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G8 G11:G16 G18 G20">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G10">
-    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G10">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G24 G26">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G24 G26">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25">
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7351,12 +7897,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
+  <conditionalFormatting sqref="G28">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7376,13 +7922,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="B2:F2"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8100,12 +8646,41 @@
       <c r="E27" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="12"/>
+      <c r="F27" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="G27" s="26">
         <v>1</v>
       </c>
       <c r="H27" s="3" t="str">
-        <f t="shared" ref="H27" si="2">IF(OR(AND(G27&gt;1,G27&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="H27:H28" si="2">IF(OR(AND(G27&gt;1,G27&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="26">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8117,7 +8692,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G14">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8133,12 +8708,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22 G17 G19 G24 G26">
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G22 G17 G19 G24 G26 G28">
+    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17 G22 G19 G24 G26">
+  <conditionalFormatting sqref="G22 G17 G19 G24 G26 G28">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8151,7 +8726,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18 G20:G21">
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8168,7 +8743,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8185,7 +8760,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8202,7 +8777,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8219,7 +8794,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8236,7 +8811,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G8 G10 G13">
-    <cfRule type="containsText" dxfId="7" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8253,7 +8828,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="6" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8270,7 +8845,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="5" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8287,11 +8862,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23 G25">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G25">
+  <conditionalFormatting sqref="G25 G23">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8304,7 +8879,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8334,7 +8909,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
